--- a/data/stat probs/yuta watanabe stat probs - condition.xlsx
+++ b/data/stat probs/yuta watanabe stat probs - condition.xlsx
@@ -18,35 +18,35 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phi 2023 regular" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phi 2023 postseason" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phi 2023 full" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="224 before 2023 regular" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="226 before 2023 regular" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="orl 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="orl 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 full" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="utah 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="utah 2023 full" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 full" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="atl 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="atl 2023 full" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hou 2023 regular" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hou 2023 full" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 regular" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 full" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mia 2023 regular" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mia 2023 full" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cle 2023 regular" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cle 2023 full" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="orl 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="orl 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 full" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="utah 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="utah 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 full" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="atl 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="atl 2023 full" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hou 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hou 2023 full" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 regular" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 full" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mia 2023 regular" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mia 2023 full" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cle 2023 regular" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cle 2023 full" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="40" state="visible" r:id="rId40"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 regular" sheetId="41" state="visible" r:id="rId41"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 full" sheetId="42" state="visible" r:id="rId42"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sac 2023 regular" sheetId="43" state="visible" r:id="rId43"/>
@@ -598,28 +598,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -1724,28 +1724,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -2174,28 +2174,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2464,28 +2464,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2754,10 +2754,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2948,28 +2948,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -3726,28 +3726,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -4176,16 +4176,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -4194,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4370,16 +4370,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -4388,10 +4388,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4564,28 +4564,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4950,28 +4950,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -5688,28 +5688,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -6358,1226 +6358,6 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>82</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18</v>
-      </c>
-      <c r="E3" t="n">
-        <v>91</v>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G3" t="n">
-        <v>64</v>
-      </c>
-      <c r="H3" t="n">
-        <v>36</v>
-      </c>
-      <c r="I3" t="n">
-        <v>45</v>
-      </c>
-      <c r="J3" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>82</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18</v>
-      </c>
-      <c r="E4" t="n">
-        <v>73</v>
-      </c>
-      <c r="F4" t="n">
-        <v>27</v>
-      </c>
-      <c r="G4" t="n">
-        <v>45</v>
-      </c>
-      <c r="H4" t="n">
-        <v>55</v>
-      </c>
-      <c r="I4" t="n">
-        <v>27</v>
-      </c>
-      <c r="J4" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>64</v>
-      </c>
-      <c r="D5" t="n">
-        <v>36</v>
-      </c>
-      <c r="E5" t="n">
-        <v>64</v>
-      </c>
-      <c r="F5" t="n">
-        <v>36</v>
-      </c>
-      <c r="G5" t="n">
-        <v>18</v>
-      </c>
-      <c r="H5" t="n">
-        <v>82</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>45</v>
-      </c>
-      <c r="D6" t="n">
-        <v>55</v>
-      </c>
-      <c r="E6" t="n">
-        <v>36</v>
-      </c>
-      <c r="F6" t="n">
-        <v>64</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>45</v>
-      </c>
-      <c r="D7" t="n">
-        <v>55</v>
-      </c>
-      <c r="E7" t="n">
-        <v>36</v>
-      </c>
-      <c r="F7" t="n">
-        <v>64</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>36</v>
-      </c>
-      <c r="D8" t="n">
-        <v>64</v>
-      </c>
-      <c r="E8" t="n">
-        <v>9</v>
-      </c>
-      <c r="F8" t="n">
-        <v>91</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>27</v>
-      </c>
-      <c r="D9" t="n">
-        <v>73</v>
-      </c>
-      <c r="E9" t="n">
-        <v>9</v>
-      </c>
-      <c r="F9" t="n">
-        <v>91</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>27</v>
-      </c>
-      <c r="D10" t="n">
-        <v>73</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>27</v>
-      </c>
-      <c r="D11" t="n">
-        <v>73</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>18</v>
-      </c>
-      <c r="D12" t="n">
-        <v>82</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>18</v>
-      </c>
-      <c r="D13" t="n">
-        <v>82</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>9</v>
-      </c>
-      <c r="D14" t="n">
-        <v>91</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>9</v>
-      </c>
-      <c r="D15" t="n">
-        <v>91</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>9</v>
-      </c>
-      <c r="D16" t="n">
-        <v>91</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>9</v>
-      </c>
-      <c r="D17" t="n">
-        <v>91</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>9</v>
-      </c>
-      <c r="D18" t="n">
-        <v>91</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>82</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18</v>
-      </c>
-      <c r="E3" t="n">
-        <v>91</v>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G3" t="n">
-        <v>64</v>
-      </c>
-      <c r="H3" t="n">
-        <v>36</v>
-      </c>
-      <c r="I3" t="n">
-        <v>45</v>
-      </c>
-      <c r="J3" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>82</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18</v>
-      </c>
-      <c r="E4" t="n">
-        <v>73</v>
-      </c>
-      <c r="F4" t="n">
-        <v>27</v>
-      </c>
-      <c r="G4" t="n">
-        <v>45</v>
-      </c>
-      <c r="H4" t="n">
-        <v>55</v>
-      </c>
-      <c r="I4" t="n">
-        <v>27</v>
-      </c>
-      <c r="J4" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>64</v>
-      </c>
-      <c r="D5" t="n">
-        <v>36</v>
-      </c>
-      <c r="E5" t="n">
-        <v>64</v>
-      </c>
-      <c r="F5" t="n">
-        <v>36</v>
-      </c>
-      <c r="G5" t="n">
-        <v>18</v>
-      </c>
-      <c r="H5" t="n">
-        <v>82</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>45</v>
-      </c>
-      <c r="D6" t="n">
-        <v>55</v>
-      </c>
-      <c r="E6" t="n">
-        <v>36</v>
-      </c>
-      <c r="F6" t="n">
-        <v>64</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>45</v>
-      </c>
-      <c r="D7" t="n">
-        <v>55</v>
-      </c>
-      <c r="E7" t="n">
-        <v>36</v>
-      </c>
-      <c r="F7" t="n">
-        <v>64</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>36</v>
-      </c>
-      <c r="D8" t="n">
-        <v>64</v>
-      </c>
-      <c r="E8" t="n">
-        <v>9</v>
-      </c>
-      <c r="F8" t="n">
-        <v>91</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>27</v>
-      </c>
-      <c r="D9" t="n">
-        <v>73</v>
-      </c>
-      <c r="E9" t="n">
-        <v>9</v>
-      </c>
-      <c r="F9" t="n">
-        <v>91</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>27</v>
-      </c>
-      <c r="D10" t="n">
-        <v>73</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>27</v>
-      </c>
-      <c r="D11" t="n">
-        <v>73</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>18</v>
-      </c>
-      <c r="D12" t="n">
-        <v>82</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>18</v>
-      </c>
-      <c r="D13" t="n">
-        <v>82</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>9</v>
-      </c>
-      <c r="D14" t="n">
-        <v>91</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>9</v>
-      </c>
-      <c r="D15" t="n">
-        <v>91</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>9</v>
-      </c>
-      <c r="D16" t="n">
-        <v>91</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>9</v>
-      </c>
-      <c r="D17" t="n">
-        <v>91</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>9</v>
-      </c>
-      <c r="D18" t="n">
-        <v>91</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7646,16 +6426,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -7835,7 +6615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7904,16 +6684,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -8093,7 +6873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8162,28 +6942,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -8727,6 +7507,1002 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>77</v>
+      </c>
+      <c r="E2" t="n">
+        <v>27</v>
+      </c>
+      <c r="F2" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2" t="n">
+        <v>47</v>
+      </c>
+      <c r="H2" t="n">
+        <v>53</v>
+      </c>
+      <c r="I2" t="n">
+        <v>40</v>
+      </c>
+      <c r="J2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>77</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23</v>
+      </c>
+      <c r="E3" t="n">
+        <v>73</v>
+      </c>
+      <c r="F3" t="n">
+        <v>27</v>
+      </c>
+      <c r="G3" t="n">
+        <v>53</v>
+      </c>
+      <c r="H3" t="n">
+        <v>47</v>
+      </c>
+      <c r="I3" t="n">
+        <v>60</v>
+      </c>
+      <c r="J3" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>73</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" t="n">
+        <v>50</v>
+      </c>
+      <c r="G4" t="n">
+        <v>27</v>
+      </c>
+      <c r="H4" t="n">
+        <v>73</v>
+      </c>
+      <c r="I4" t="n">
+        <v>33</v>
+      </c>
+      <c r="J4" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E5" t="n">
+        <v>37</v>
+      </c>
+      <c r="F5" t="n">
+        <v>63</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>97</v>
+      </c>
+      <c r="I5" t="n">
+        <v>13</v>
+      </c>
+      <c r="J5" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>60</v>
+      </c>
+      <c r="D6" t="n">
+        <v>40</v>
+      </c>
+      <c r="E6" t="n">
+        <v>30</v>
+      </c>
+      <c r="F6" t="n">
+        <v>70</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>57</v>
+      </c>
+      <c r="D7" t="n">
+        <v>43</v>
+      </c>
+      <c r="E7" t="n">
+        <v>23</v>
+      </c>
+      <c r="F7" t="n">
+        <v>77</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>50</v>
+      </c>
+      <c r="D8" t="n">
+        <v>50</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>97</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>43</v>
+      </c>
+      <c r="D9" t="n">
+        <v>57</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>97</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>60</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" t="n">
+        <v>70</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>27</v>
+      </c>
+      <c r="D12" t="n">
+        <v>73</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D13" t="n">
+        <v>80</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" t="n">
+        <v>90</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>93</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7</v>
+      </c>
+      <c r="D16" t="n">
+        <v>93</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>97</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>97</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>97</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>67</v>
+      </c>
+      <c r="H2" t="n">
+        <v>33</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>33</v>
+      </c>
+      <c r="H3" t="n">
+        <v>67</v>
+      </c>
+      <c r="I3" t="n">
+        <v>100</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>67</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="n">
+        <v>33</v>
+      </c>
+      <c r="H4" t="n">
+        <v>67</v>
+      </c>
+      <c r="I4" t="n">
+        <v>33</v>
+      </c>
+      <c r="J4" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>67</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="n">
+        <v>33</v>
+      </c>
+      <c r="H5" t="n">
+        <v>67</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>67</v>
+      </c>
+      <c r="D6" t="n">
+        <v>33</v>
+      </c>
+      <c r="E6" t="n">
+        <v>33</v>
+      </c>
+      <c r="F6" t="n">
+        <v>67</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>67</v>
+      </c>
+      <c r="D7" t="n">
+        <v>33</v>
+      </c>
+      <c r="E7" t="n">
+        <v>33</v>
+      </c>
+      <c r="F7" t="n">
+        <v>67</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>67</v>
+      </c>
+      <c r="D8" t="n">
+        <v>33</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>33</v>
+      </c>
+      <c r="D9" t="n">
+        <v>67</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>33</v>
+      </c>
+      <c r="D10" t="n">
+        <v>67</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>100</v>
       </c>
     </row>
@@ -8804,16 +8580,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -8822,10 +8598,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -8930,648 +8706,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>77</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23</v>
-      </c>
-      <c r="E3" t="n">
-        <v>73</v>
-      </c>
-      <c r="F3" t="n">
-        <v>27</v>
-      </c>
-      <c r="G3" t="n">
-        <v>53</v>
-      </c>
-      <c r="H3" t="n">
-        <v>47</v>
-      </c>
-      <c r="I3" t="n">
-        <v>60</v>
-      </c>
-      <c r="J3" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>73</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27</v>
-      </c>
-      <c r="E4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F4" t="n">
-        <v>50</v>
-      </c>
-      <c r="G4" t="n">
-        <v>27</v>
-      </c>
-      <c r="H4" t="n">
-        <v>73</v>
-      </c>
-      <c r="I4" t="n">
-        <v>33</v>
-      </c>
-      <c r="J4" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>70</v>
-      </c>
-      <c r="D5" t="n">
-        <v>30</v>
-      </c>
-      <c r="E5" t="n">
-        <v>37</v>
-      </c>
-      <c r="F5" t="n">
-        <v>63</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3</v>
-      </c>
-      <c r="H5" t="n">
-        <v>97</v>
-      </c>
-      <c r="I5" t="n">
-        <v>13</v>
-      </c>
-      <c r="J5" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>60</v>
-      </c>
-      <c r="D6" t="n">
-        <v>40</v>
-      </c>
-      <c r="E6" t="n">
-        <v>30</v>
-      </c>
-      <c r="F6" t="n">
-        <v>70</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>57</v>
-      </c>
-      <c r="D7" t="n">
-        <v>43</v>
-      </c>
-      <c r="E7" t="n">
-        <v>23</v>
-      </c>
-      <c r="F7" t="n">
-        <v>77</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>50</v>
-      </c>
-      <c r="D8" t="n">
-        <v>50</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>97</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>43</v>
-      </c>
-      <c r="D9" t="n">
-        <v>57</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>97</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>40</v>
-      </c>
-      <c r="D10" t="n">
-        <v>60</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" t="n">
-        <v>70</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>27</v>
-      </c>
-      <c r="D12" t="n">
-        <v>73</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>20</v>
-      </c>
-      <c r="D13" t="n">
-        <v>80</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>10</v>
-      </c>
-      <c r="D14" t="n">
-        <v>90</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>7</v>
-      </c>
-      <c r="D15" t="n">
-        <v>93</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>7</v>
-      </c>
-      <c r="D16" t="n">
-        <v>93</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" t="n">
-        <v>97</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>97</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>97</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9640,28 +8774,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -9925,361 +9059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>33</v>
-      </c>
-      <c r="H3" t="n">
-        <v>67</v>
-      </c>
-      <c r="I3" t="n">
-        <v>100</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>67</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" t="n">
-        <v>33</v>
-      </c>
-      <c r="H4" t="n">
-        <v>67</v>
-      </c>
-      <c r="I4" t="n">
-        <v>33</v>
-      </c>
-      <c r="J4" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>67</v>
-      </c>
-      <c r="F5" t="n">
-        <v>33</v>
-      </c>
-      <c r="G5" t="n">
-        <v>33</v>
-      </c>
-      <c r="H5" t="n">
-        <v>67</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>67</v>
-      </c>
-      <c r="D6" t="n">
-        <v>33</v>
-      </c>
-      <c r="E6" t="n">
-        <v>33</v>
-      </c>
-      <c r="F6" t="n">
-        <v>67</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>67</v>
-      </c>
-      <c r="D7" t="n">
-        <v>33</v>
-      </c>
-      <c r="E7" t="n">
-        <v>33</v>
-      </c>
-      <c r="F7" t="n">
-        <v>67</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>67</v>
-      </c>
-      <c r="D8" t="n">
-        <v>33</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>33</v>
-      </c>
-      <c r="D9" t="n">
-        <v>67</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>33</v>
-      </c>
-      <c r="D10" t="n">
-        <v>67</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10348,28 +9128,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -10889,7 +9669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10958,28 +9738,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -11499,7 +10279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11568,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -11789,7 +10569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11858,28 +10638,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -12079,7 +10859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12148,28 +10928,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -12817,7 +11597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12886,28 +11666,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -13555,7 +12335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13624,16 +12404,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -13773,6 +12553,394 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E2" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E3" t="n">
+        <v>50</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>100</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" t="n">
+        <v>50</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>100</v>
       </c>
     </row>
@@ -13850,28 +13018,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -14520,232 +13688,6 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="n">
-        <v>50</v>
-      </c>
-      <c r="E3" t="n">
-        <v>50</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>100</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" t="n">
-        <v>50</v>
-      </c>
-      <c r="E4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F4" t="n">
-        <v>50</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D5" t="n">
-        <v>50</v>
-      </c>
-      <c r="E5" t="n">
-        <v>50</v>
-      </c>
-      <c r="F5" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14814,10 +13756,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -14826,10 +13768,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -14907,169 +13849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>100</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>100</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15138,28 +13918,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -15487,7 +14267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15556,28 +14336,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -15905,7 +14685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15974,16 +14754,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -15992,10 +14772,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -16099,7 +14879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16168,16 +14948,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -16186,10 +14966,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -16293,7 +15073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16362,28 +15142,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -16839,7 +15619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16908,28 +15688,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -17385,7 +16165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17454,28 +16234,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -17795,6 +16575,874 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>67</v>
+      </c>
+      <c r="E2" t="n">
+        <v>33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>67</v>
+      </c>
+      <c r="J2" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>67</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>33</v>
+      </c>
+      <c r="J3" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33</v>
+      </c>
+      <c r="E4" t="n">
+        <v>33</v>
+      </c>
+      <c r="F4" t="n">
+        <v>67</v>
+      </c>
+      <c r="G4" t="n">
+        <v>33</v>
+      </c>
+      <c r="H4" t="n">
+        <v>67</v>
+      </c>
+      <c r="I4" t="n">
+        <v>33</v>
+      </c>
+      <c r="J4" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>67</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33</v>
+      </c>
+      <c r="E5" t="n">
+        <v>33</v>
+      </c>
+      <c r="F5" t="n">
+        <v>67</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>67</v>
+      </c>
+      <c r="D6" t="n">
+        <v>33</v>
+      </c>
+      <c r="E6" t="n">
+        <v>33</v>
+      </c>
+      <c r="F6" t="n">
+        <v>67</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>33</v>
+      </c>
+      <c r="D7" t="n">
+        <v>67</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="n">
+        <v>67</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>33</v>
+      </c>
+      <c r="D9" t="n">
+        <v>67</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>33</v>
+      </c>
+      <c r="D10" t="n">
+        <v>67</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>33</v>
+      </c>
+      <c r="D11" t="n">
+        <v>67</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>33</v>
+      </c>
+      <c r="D12" t="n">
+        <v>67</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H3" t="n">
+        <v>50</v>
+      </c>
+      <c r="I3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J3" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" t="n">
+        <v>75</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="n">
+        <v>50</v>
+      </c>
+      <c r="F6" t="n">
+        <v>50</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>50</v>
+      </c>
+      <c r="D8" t="n">
+        <v>50</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>50</v>
+      </c>
+      <c r="D9" t="n">
+        <v>50</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>50</v>
+      </c>
+      <c r="D10" t="n">
+        <v>50</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>50</v>
+      </c>
+      <c r="D11" t="n">
+        <v>50</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D12" t="n">
+        <v>50</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>25</v>
+      </c>
+      <c r="D13" t="n">
+        <v>75</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>100</v>
       </c>
     </row>
@@ -17872,28 +17520,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -18419,7 +18067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18482,28 +18130,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -18514,28 +18162,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I3" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -18546,28 +18194,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J4" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -18578,16 +18226,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -18596,10 +18244,10 @@
         <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -18610,16 +18258,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -18642,10 +18290,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -18674,10 +18322,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -18706,10 +18354,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -18738,10 +18386,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -18770,10 +18418,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -18802,10 +18450,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D12" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -18823,6 +18471,38 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>25</v>
+      </c>
+      <c r="D13" t="n">
+        <v>75</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>100</v>
       </c>
     </row>
@@ -19096,28 +18776,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -19546,28 +19226,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -19996,22 +19676,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20158,22 +19838,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20320,28 +20000,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -20706,28 +20386,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -21092,22 +20772,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -21478,28 +21158,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -22088,22 +21768,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -22474,28 +22154,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -23116,28 +22796,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -23758,28 +23438,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -24208,28 +23888,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -24658,28 +24338,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -24852,28 +24532,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -25052,10 +24732,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -25182,10 +24862,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -25306,28 +24986,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -25852,28 +25532,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -26590,28 +26270,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -27136,10 +26816,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -27154,10 +26834,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -27330,10 +27010,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -27348,10 +27028,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -27524,10 +27204,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -27542,10 +27222,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -27718,10 +27398,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -27736,10 +27416,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -27912,28 +27592,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -28298,28 +27978,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -28684,10 +28364,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -28910,10 +28590,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -29142,16 +28822,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -29330,16 +29010,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -29348,10 +29028,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -29530,16 +29210,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -29718,28 +29398,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -30264,28 +29944,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -30810,28 +30490,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -31100,28 +30780,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -31390,28 +31070,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -31872,28 +31552,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -32354,28 +32034,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -32708,28 +32388,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -33062,16 +32742,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -33256,28 +32936,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -33994,16 +33674,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -34188,16 +33868,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -34206,10 +33886,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -34510,16 +34190,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -34528,10 +34208,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -34832,22 +34512,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -35090,22 +34770,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -35348,10 +35028,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -35366,10 +35046,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -35542,10 +35222,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -35560,10 +35240,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -35736,28 +35416,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -36378,28 +36058,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -37020,28 +36700,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -37438,28 +37118,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -37888,28 +37568,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -38306,28 +37986,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -38724,28 +38404,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -39142,28 +38822,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -39752,28 +39432,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -40362,28 +40042,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -40972,28 +40652,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -41582,28 +41262,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -42320,28 +42000,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -43058,22 +42738,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
